--- a/BackTest/2019-10-11 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-11 BackTest TMTG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>1.017</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>1.017</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.06000000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>1.017</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L15" t="n">
         <v>1.016</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>1.015</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20</v>
+      </c>
       <c r="L17" t="n">
         <v>1.015</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.07000000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>1.014</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>1.015</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>1.015</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.08000000000000007</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>1.016</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.09000000000000008</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>1.015</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L23" t="n">
         <v>1.013</v>
@@ -1466,7 +1488,7 @@
         <v>0.1000000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>1.011</v>
@@ -1515,7 +1537,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>1.011</v>
@@ -1564,7 +1586,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -1613,7 +1635,7 @@
         <v>0.1200000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L27" t="n">
         <v>1.009</v>
@@ -1662,7 +1684,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L28" t="n">
         <v>1.009</v>
@@ -1711,7 +1733,7 @@
         <v>0.1300000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>1.008</v>
@@ -1760,7 +1782,7 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L30" t="n">
         <v>1.006</v>
@@ -1860,7 +1882,7 @@
         <v>0.1500000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>1.005</v>
@@ -1911,7 +1933,7 @@
         <v>0.1600000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>1.005</v>
@@ -2013,7 +2035,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L35" t="n">
         <v>1.005</v>
@@ -2064,7 +2086,7 @@
         <v>0.1700000000000002</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>1.006</v>
@@ -2115,7 +2137,7 @@
         <v>0.1800000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L37" t="n">
         <v>1.006</v>
@@ -2217,7 +2239,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1.005</v>
@@ -2268,7 +2290,7 @@
         <v>0.2100000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>1.006</v>
@@ -2370,7 +2392,7 @@
         <v>0.2300000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>1.005</v>
@@ -2421,7 +2443,7 @@
         <v>0.2300000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L43" t="n">
         <v>1.006</v>
@@ -2472,7 +2494,7 @@
         <v>0.2300000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1.007</v>
@@ -2523,7 +2545,7 @@
         <v>0.2400000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>1.006</v>
@@ -2574,7 +2596,7 @@
         <v>0.2500000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>1.006</v>
@@ -2625,7 +2647,7 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>1.006</v>
@@ -2676,7 +2698,7 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>1.005</v>
@@ -2727,7 +2749,7 @@
         <v>0.2600000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>1.005</v>
@@ -2778,7 +2800,7 @@
         <v>0.2700000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>1.005</v>
@@ -2931,7 +2953,7 @@
         <v>0.3300000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>41.17647058823529</v>
+        <v>60</v>
       </c>
       <c r="L53" t="n">
         <v>1.012</v>
@@ -2982,7 +3004,7 @@
         <v>0.3300000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>41.17647058823529</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L54" t="n">
         <v>1.018</v>
@@ -3033,7 +3055,7 @@
         <v>0.3400000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>41.17647058823529</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L55" t="n">
         <v>1.026</v>
@@ -3084,7 +3106,7 @@
         <v>0.3700000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>1.036</v>
@@ -3135,7 +3157,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="K57" t="n">
-        <v>61.90476190476186</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>1.049</v>
@@ -3186,7 +3208,7 @@
         <v>0.3900000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>59.99999999999995</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>1.062</v>
@@ -3237,7 +3259,7 @@
         <v>0.3999999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>60.00000000000013</v>
+        <v>84.6153846153849</v>
       </c>
       <c r="L59" t="n">
         <v>1.074</v>
@@ -3288,7 +3310,7 @@
         <v>0.4099999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>60.00000000000009</v>
+        <v>85.71428571428596</v>
       </c>
       <c r="L60" t="n">
         <v>1.086</v>
@@ -3339,7 +3361,7 @@
         <v>0.4199999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>70.00000000000011</v>
+        <v>86.6666666666669</v>
       </c>
       <c r="L61" t="n">
         <v>1.099</v>
@@ -3390,7 +3412,7 @@
         <v>0.4399999999999995</v>
       </c>
       <c r="K62" t="n">
-        <v>52.38095238095261</v>
+        <v>45.45454545454582</v>
       </c>
       <c r="L62" t="n">
         <v>1.11</v>
@@ -3441,7 +3463,7 @@
         <v>0.4399999999999995</v>
       </c>
       <c r="K63" t="n">
-        <v>52.38095238095261</v>
+        <v>45.45454545454582</v>
       </c>
       <c r="L63" t="n">
         <v>1.115</v>
@@ -3492,7 +3514,7 @@
         <v>0.4499999999999995</v>
       </c>
       <c r="K64" t="n">
-        <v>45.45454545454564</v>
+        <v>27.27272727272749</v>
       </c>
       <c r="L64" t="n">
         <v>1.119</v>
@@ -3543,7 +3565,7 @@
         <v>0.4599999999999995</v>
       </c>
       <c r="K65" t="n">
-        <v>54.54545454545476</v>
+        <v>11.11111111111122</v>
       </c>
       <c r="L65" t="n">
         <v>1.123</v>
@@ -3594,7 +3616,7 @@
         <v>0.4699999999999995</v>
       </c>
       <c r="K66" t="n">
-        <v>45.45454545454564</v>
+        <v>-24.99999999999993</v>
       </c>
       <c r="L66" t="n">
         <v>1.123</v>
@@ -3645,7 +3667,7 @@
         <v>0.4899999999999995</v>
       </c>
       <c r="K67" t="n">
-        <v>39.13043478260884</v>
+        <v>-40.00000000000005</v>
       </c>
       <c r="L67" t="n">
         <v>1.119</v>
@@ -3696,7 +3718,7 @@
         <v>0.4899999999999995</v>
       </c>
       <c r="K68" t="n">
-        <v>39.13043478260884</v>
+        <v>-33.3333333333335</v>
       </c>
       <c r="L68" t="n">
         <v>1.115</v>
@@ -3747,7 +3769,7 @@
         <v>0.4899999999999995</v>
       </c>
       <c r="K69" t="n">
-        <v>39.13043478260884</v>
+        <v>-49.99999999999986</v>
       </c>
       <c r="L69" t="n">
         <v>1.112</v>
@@ -3798,7 +3820,7 @@
         <v>0.4899999999999995</v>
       </c>
       <c r="K70" t="n">
-        <v>36.36363636363651</v>
+        <v>-71.42857142857135</v>
       </c>
       <c r="L70" t="n">
         <v>1.108</v>
@@ -3849,7 +3871,7 @@
         <v>0.4999999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>39.13043478260884</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>1.104</v>
@@ -3900,7 +3922,7 @@
         <v>0.5099999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>41.66666666666682</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L72" t="n">
         <v>1.103</v>
@@ -3951,7 +3973,7 @@
         <v>0.5299999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>10.00000000000004</v>
+        <v>-25</v>
       </c>
       <c r="L73" t="n">
         <v>1.1</v>
@@ -4002,7 +4024,7 @@
         <v>0.5499999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L74" t="n">
         <v>1.096</v>
@@ -4053,7 +4075,7 @@
         <v>0.5499999999999996</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.761904761904781</v>
+        <v>-50</v>
       </c>
       <c r="L75" t="n">
         <v>1.091</v>
@@ -4104,7 +4126,7 @@
         <v>0.5499999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>-22.22222222222233</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>1.087</v>
@@ -4155,7 +4177,7 @@
         <v>0.5599999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-29.41176470588234</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L77" t="n">
         <v>1.086</v>
@@ -4206,7 +4228,7 @@
         <v>0.5699999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L78" t="n">
         <v>1.084</v>
@@ -4257,7 +4279,7 @@
         <v>0.5899999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>-36.84210526315798</v>
+        <v>-40</v>
       </c>
       <c r="L79" t="n">
         <v>1.08</v>
@@ -4308,7 +4330,7 @@
         <v>0.5899999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>-44.44444444444437</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L80" t="n">
         <v>1.076</v>
@@ -4359,7 +4381,7 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>-44.44444444444437</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L81" t="n">
         <v>1.072000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>0.6099999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>-29.41176470588236</v>
+        <v>-25</v>
       </c>
       <c r="L82" t="n">
         <v>1.068000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>0.6099999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>1.066000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>0.6199999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>1.065000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>0.6299999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>-41.17647058823529</v>
+        <v>-25</v>
       </c>
       <c r="L85" t="n">
         <v>1.063000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>0.6299999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>-37.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L86" t="n">
         <v>1.061000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>0.6299999999999997</v>
       </c>
       <c r="K87" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>1.058000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>0.6399999999999997</v>
       </c>
       <c r="K88" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>1.057000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>0.6499999999999997</v>
       </c>
       <c r="K89" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>1.057000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>0.6599999999999997</v>
       </c>
       <c r="K90" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>1.058000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>0.6599999999999997</v>
       </c>
       <c r="K91" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L91" t="n">
         <v>1.058000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>0.6599999999999997</v>
       </c>
       <c r="K92" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L92" t="n">
         <v>1.057000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>0.6699999999999997</v>
       </c>
       <c r="K93" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L93" t="n">
         <v>1.055000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>0.6699999999999997</v>
       </c>
       <c r="K94" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>1.054000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>0.6799999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>1.055000000000001</v>
@@ -5124,7 +5146,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>1.055000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L97" t="n">
         <v>1.055000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K98" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>1.054000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>1.054000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>1.053000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>0.6899999999999997</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>1.052000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="K102" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>1.052000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>0.7099999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>1.052000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>0.7199999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>1.053000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>0.7199999999999998</v>
       </c>
       <c r="K106" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>1.054000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>0.7399999999999998</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L108" t="n">
         <v>1.055000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>0.7399999999999998</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>1.056000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>0.7499999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>1.058000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>0.7699999999999998</v>
       </c>
       <c r="K111" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L111" t="n">
         <v>1.058000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>0.7899999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L112" t="n">
         <v>1.059000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>0.7899999999999998</v>
       </c>
       <c r="K113" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L113" t="n">
         <v>1.061000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>0.7999999999999998</v>
       </c>
       <c r="K114" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>1.061000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>0.8099999999999998</v>
       </c>
       <c r="K115" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L115" t="n">
         <v>1.060000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>0.8199999999999998</v>
       </c>
       <c r="K116" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L116" t="n">
         <v>1.060000000000001</v>
@@ -6195,7 +6217,7 @@
         <v>0.8199999999999998</v>
       </c>
       <c r="K117" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>1.061000000000001</v>
@@ -6246,7 +6268,7 @@
         <v>0.8199999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>1.061000000000001</v>
@@ -6297,7 +6319,7 @@
         <v>0.8399999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>1.059000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L121" t="n">
         <v>1.058</v>
@@ -6450,7 +6472,7 @@
         <v>0.8599999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>1.057000000000001</v>
@@ -6501,7 +6523,7 @@
         <v>0.8699999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>1.055000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>1.055000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>0.8899999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>1.055000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>0.9099999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>1.056</v>
@@ -6756,7 +6778,7 @@
         <v>0.9199999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L128" t="n">
         <v>1.057000000000001</v>
@@ -6807,7 +6829,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>1.058</v>
@@ -6858,7 +6880,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>1.059000000000001</v>
@@ -6909,7 +6931,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>1.059000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>1.059000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
         <v>1.06</v>
@@ -7062,7 +7084,7 @@
         <v>0.96</v>
       </c>
       <c r="K134" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L134" t="n">
         <v>1.058</v>
@@ -7113,7 +7135,7 @@
         <v>0.98</v>
       </c>
       <c r="K135" t="n">
-        <v>-17.64705882352941</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L135" t="n">
         <v>1.055</v>
@@ -7164,7 +7186,7 @@
         <v>0.98</v>
       </c>
       <c r="K136" t="n">
-        <v>-25</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L136" t="n">
         <v>1.05</v>
@@ -7215,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>-11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L137" t="n">
         <v>1.047</v>
@@ -7266,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>1.045</v>
@@ -7317,7 +7339,7 @@
         <v>1.01</v>
       </c>
       <c r="K139" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L139" t="n">
         <v>1.045</v>
@@ -7368,7 +7390,7 @@
         <v>1.02</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L140" t="n">
         <v>1.043</v>
@@ -7419,7 +7441,7 @@
         <v>1.03</v>
       </c>
       <c r="K141" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>1.04</v>
@@ -7470,7 +7492,7 @@
         <v>1.04</v>
       </c>
       <c r="K142" t="n">
-        <v>-22.22222222222222</v>
+        <v>-40</v>
       </c>
       <c r="L142" t="n">
         <v>1.036</v>
@@ -7521,7 +7543,7 @@
         <v>1.08</v>
       </c>
       <c r="K143" t="n">
-        <v>4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L143" t="n">
         <v>1.036</v>
@@ -7572,7 +7594,7 @@
         <v>1.09</v>
       </c>
       <c r="K144" t="n">
-        <v>-4.761904761904762</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L144" t="n">
         <v>1.037</v>
@@ -7623,7 +7645,7 @@
         <v>1.1</v>
       </c>
       <c r="K145" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L145" t="n">
         <v>1.039</v>
@@ -7674,7 +7696,7 @@
         <v>1.1</v>
       </c>
       <c r="K146" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>1.041</v>
@@ -7725,7 +7747,7 @@
         <v>1.11</v>
       </c>
       <c r="K147" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L147" t="n">
         <v>1.042</v>
@@ -7776,7 +7798,7 @@
         <v>1.13</v>
       </c>
       <c r="K148" t="n">
-        <v>-14.28571428571428</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L148" t="n">
         <v>1.041</v>
@@ -7827,7 +7849,7 @@
         <v>1.13</v>
       </c>
       <c r="K149" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L149" t="n">
         <v>1.039</v>
@@ -7878,7 +7900,7 @@
         <v>1.14</v>
       </c>
       <c r="K150" t="n">
-        <v>-20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L150" t="n">
         <v>1.037</v>
@@ -7929,7 +7951,7 @@
         <v>1.15</v>
       </c>
       <c r="K151" t="n">
-        <v>-14.28571428571428</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L151" t="n">
         <v>1.037</v>
@@ -7980,7 +8002,7 @@
         <v>1.15</v>
       </c>
       <c r="K152" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L152" t="n">
         <v>1.038</v>
@@ -8031,7 +8053,7 @@
         <v>1.17</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>1.037</v>
@@ -8133,7 +8155,7 @@
         <v>1.18</v>
       </c>
       <c r="K155" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>1.036</v>
@@ -8184,7 +8206,7 @@
         <v>1.18</v>
       </c>
       <c r="K156" t="n">
-        <v>10</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L156" t="n">
         <v>1.036</v>
@@ -8235,7 +8257,7 @@
         <v>1.19</v>
       </c>
       <c r="K157" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>1.033999999999999</v>
@@ -8286,7 +8308,7 @@
         <v>1.2</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L158" t="n">
         <v>1.035</v>
@@ -8337,7 +8359,7 @@
         <v>1.21</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L159" t="n">
         <v>1.037</v>
@@ -8388,7 +8410,7 @@
         <v>1.22</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L160" t="n">
         <v>1.039</v>
@@ -8439,7 +8461,7 @@
         <v>1.23</v>
       </c>
       <c r="K161" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L161" t="n">
         <v>1.041</v>
@@ -8490,7 +8512,7 @@
         <v>1.23</v>
       </c>
       <c r="K162" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>1.043</v>
@@ -8541,7 +8563,7 @@
         <v>1.24</v>
       </c>
       <c r="K163" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>1.042</v>
@@ -8592,7 +8614,7 @@
         <v>1.25</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L164" t="n">
         <v>1.043</v>
@@ -8694,7 +8716,7 @@
         <v>1.27</v>
       </c>
       <c r="K166" t="n">
-        <v>5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L166" t="n">
         <v>1.044</v>
@@ -8745,7 +8767,7 @@
         <v>1.28</v>
       </c>
       <c r="K167" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>1.045</v>
@@ -8796,7 +8818,7 @@
         <v>1.29</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L168" t="n">
         <v>1.044</v>
@@ -8847,7 +8869,7 @@
         <v>1.3</v>
       </c>
       <c r="K169" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>1.043</v>
@@ -8898,7 +8920,7 @@
         <v>1.3</v>
       </c>
       <c r="K170" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>1.043</v>
@@ -8949,7 +8971,7 @@
         <v>1.3</v>
       </c>
       <c r="K171" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L171" t="n">
         <v>1.042</v>
@@ -9000,7 +9022,7 @@
         <v>1.3</v>
       </c>
       <c r="K172" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>1.041</v>
@@ -9051,7 +9073,7 @@
         <v>1.31</v>
       </c>
       <c r="K173" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>1.04</v>
@@ -9153,7 +9175,7 @@
         <v>1.32</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L175" t="n">
         <v>1.038999999999999</v>
@@ -9204,7 +9226,7 @@
         <v>1.33</v>
       </c>
       <c r="K176" t="n">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="L176" t="n">
         <v>1.038999999999999</v>
@@ -9255,7 +9277,7 @@
         <v>1.33</v>
       </c>
       <c r="K177" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L177" t="n">
         <v>1.04</v>
@@ -9357,7 +9379,7 @@
         <v>1.35</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L179" t="n">
         <v>1.041999999999999</v>
@@ -9459,7 +9481,7 @@
         <v>1.36</v>
       </c>
       <c r="K181" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>1.041999999999999</v>
@@ -9510,7 +9532,7 @@
         <v>1.36</v>
       </c>
       <c r="K182" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>1.041999999999999</v>
@@ -9561,7 +9583,7 @@
         <v>1.38</v>
       </c>
       <c r="K183" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>1.040999999999999</v>
@@ -9612,7 +9634,7 @@
         <v>1.4</v>
       </c>
       <c r="K184" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>1.041</v>
@@ -9663,7 +9685,7 @@
         <v>1.41</v>
       </c>
       <c r="K185" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L185" t="n">
         <v>1.04</v>
@@ -9714,7 +9736,7 @@
         <v>1.41</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L186" t="n">
         <v>1.037999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>1.41</v>
       </c>
       <c r="K187" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>1.035999999999999</v>
@@ -9816,7 +9838,7 @@
         <v>1.41</v>
       </c>
       <c r="K188" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>1.034999999999999</v>
@@ -9867,7 +9889,7 @@
         <v>1.42</v>
       </c>
       <c r="K189" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>1.031999999999999</v>
@@ -9918,7 +9940,7 @@
         <v>1.43</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L190" t="n">
         <v>1.030999999999999</v>
@@ -9969,7 +9991,7 @@
         <v>1.43</v>
       </c>
       <c r="K191" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L191" t="n">
         <v>1.029999999999999</v>
@@ -10020,7 +10042,7 @@
         <v>1.43</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>1.028999999999999</v>
@@ -10071,7 +10093,7 @@
         <v>1.43</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>1.029999999999998</v>
@@ -10122,7 +10144,7 @@
         <v>1.43</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>1.028999999999999</v>
@@ -10173,7 +10195,7 @@
         <v>1.43</v>
       </c>
       <c r="K195" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>1.028999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>1.43</v>
       </c>
       <c r="K196" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L196" t="n">
         <v>1.028999999999999</v>
@@ -10275,7 +10297,7 @@
         <v>1.43</v>
       </c>
       <c r="K197" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>1.028999999999999</v>
@@ -10326,7 +10348,7 @@
         <v>1.44</v>
       </c>
       <c r="K198" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>1.027999999999998</v>
@@ -10377,7 +10399,7 @@
         <v>1.44</v>
       </c>
       <c r="K199" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>1.027999999999998</v>
@@ -10428,7 +10450,7 @@
         <v>1.45</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>1.027999999999998</v>
@@ -10479,7 +10501,7 @@
         <v>1.45</v>
       </c>
       <c r="K201" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>1.027999999999998</v>
@@ -10530,7 +10552,7 @@
         <v>1.46</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>1.028999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>1.47</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>1.028999999999999</v>
@@ -10632,7 +10654,7 @@
         <v>1.48</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L204" t="n">
         <v>1.029999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>1.48</v>
       </c>
       <c r="K205" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L205" t="n">
         <v>1.030999999999999</v>
@@ -10785,7 +10807,7 @@
         <v>1.5</v>
       </c>
       <c r="K207" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>1.031999999999999</v>
@@ -10836,7 +10858,7 @@
         <v>1.5</v>
       </c>
       <c r="K208" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>1.033999999999999</v>
@@ -10887,7 +10909,7 @@
         <v>1.51</v>
       </c>
       <c r="K209" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>1.034999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>1.52</v>
       </c>
       <c r="K211" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L211" t="n">
         <v>1.033999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>1.54</v>
       </c>
       <c r="K213" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>1.031999999999999</v>
@@ -11142,7 +11164,7 @@
         <v>1.55</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L214" t="n">
         <v>1.030999999999999</v>
@@ -11193,7 +11215,7 @@
         <v>1.56</v>
       </c>
       <c r="K215" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>1.028999999999999</v>
@@ -11244,7 +11266,7 @@
         <v>1.570000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>1.028999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>1.570000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L217" t="n">
         <v>1.027999999999999</v>
@@ -11346,7 +11368,7 @@
         <v>1.580000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L218" t="n">
         <v>1.025999999999999</v>
@@ -11397,7 +11419,7 @@
         <v>1.590000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>1.025999999999999</v>
@@ -11448,7 +11470,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>1.024999999999999</v>
@@ -11499,7 +11521,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L221" t="n">
         <v>1.024999999999999</v>
@@ -11550,7 +11572,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="K222" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>1.023999999999999</v>
@@ -11652,7 +11674,7 @@
         <v>1.610000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L224" t="n">
         <v>1.024999999999999</v>
@@ -11703,7 +11725,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L225" t="n">
         <v>1.024999999999999</v>
@@ -11754,7 +11776,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L226" t="n">
         <v>1.023999999999999</v>
@@ -11805,7 +11827,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>1.022999999999999</v>
@@ -11856,7 +11878,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L228" t="n">
         <v>1.022999999999999</v>
@@ -11907,7 +11929,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>1.021999999999999</v>
@@ -11958,7 +11980,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>1.021999999999999</v>
@@ -12060,7 +12082,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L232" t="n">
         <v>1.021999999999999</v>
@@ -12111,7 +12133,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L233" t="n">
         <v>1.020999999999999</v>
@@ -12162,7 +12184,7 @@
         <v>1.630000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L234" t="n">
         <v>1.020999999999999</v>
@@ -12213,7 +12235,7 @@
         <v>1.630000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L235" t="n">
         <v>1.021999999999999</v>
@@ -12264,7 +12286,7 @@
         <v>1.650000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L236" t="n">
         <v>1.020999999999999</v>
@@ -12315,7 +12337,7 @@
         <v>1.650000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L237" t="n">
         <v>1.019999999999999</v>
@@ -12366,7 +12388,7 @@
         <v>1.650000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>1.018999999999999</v>
@@ -12519,7 +12541,7 @@
         <v>1.670000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L241" t="n">
         <v>1.018999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>1.680000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L243" t="n">
         <v>1.018999999999999</v>
@@ -12723,7 +12745,7 @@
         <v>1.700000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L245" t="n">
         <v>1.017999999999999</v>
@@ -12774,7 +12796,7 @@
         <v>1.700000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>1.018999999999999</v>
@@ -12825,7 +12847,7 @@
         <v>1.710000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>1.018999999999999</v>
@@ -12876,7 +12898,7 @@
         <v>1.720000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L248" t="n">
         <v>1.019999999999999</v>
@@ -12927,7 +12949,7 @@
         <v>1.730000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>1.021999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>1.740000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>1.021999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>1.740000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L253" t="n">
         <v>1.020999999999999</v>
@@ -13182,7 +13204,7 @@
         <v>1.750000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L254" t="n">
         <v>1.020999999999999</v>
@@ -13233,7 +13255,7 @@
         <v>1.760000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>1.020999999999999</v>
@@ -13284,7 +13306,7 @@
         <v>1.770000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L256" t="n">
         <v>1.021999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>1.780000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L257" t="n">
         <v>1.022999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>1.790000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>1.023999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>1.022999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>1.810000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L260" t="n">
         <v>1.023999999999999</v>
@@ -13539,7 +13561,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>1.023999999999999</v>
@@ -13641,7 +13663,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L263" t="n">
         <v>1.023999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>1.022999999999999</v>
@@ -13743,7 +13765,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L265" t="n">
         <v>1.022999999999999</v>
@@ -13845,7 +13867,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>1.021999999999999</v>
@@ -13947,7 +13969,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L269" t="n">
         <v>1.020999999999999</v>
@@ -13997,9 +14019,7 @@
       <c r="J270" t="n">
         <v>1.820000000000001</v>
       </c>
-      <c r="K270" t="n">
-        <v>0</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -14048,9 +14068,7 @@
       <c r="J271" t="n">
         <v>1.820000000000001</v>
       </c>
-      <c r="K271" t="n">
-        <v>0</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -14100,7 +14118,7 @@
         <v>1.830000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L272" t="n">
         <v>1.018999999999999</v>
@@ -14202,7 +14220,7 @@
         <v>1.840000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>1.018999999999999</v>
@@ -14304,7 +14322,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>1.017999999999999</v>
@@ -14355,7 +14373,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>1.016999999999999</v>
@@ -14406,7 +14424,7 @@
         <v>1.860000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>1.016999999999999</v>
@@ -14508,7 +14526,7 @@
         <v>1.870000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L280" t="n">
         <v>1.015999999999999</v>
@@ -14559,7 +14577,7 @@
         <v>1.880000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L281" t="n">
         <v>1.015999999999999</v>
@@ -14763,7 +14781,7 @@
         <v>1.880000000000001</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L285" t="n">
         <v>1.016999999999999</v>
@@ -14814,7 +14832,7 @@
         <v>1.880000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>1.017999999999999</v>
@@ -14865,7 +14883,7 @@
         <v>1.890000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>1.017999999999999</v>
@@ -14967,7 +14985,7 @@
         <v>1.900000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>1.017999999999999</v>
@@ -15120,7 +15138,7 @@
         <v>1.910000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L292" t="n">
         <v>1.019999999999999</v>
@@ -15324,7 +15342,7 @@
         <v>1.920000000000001</v>
       </c>
       <c r="K296" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>1.019999999999999</v>
@@ -15375,7 +15393,7 @@
         <v>1.920000000000001</v>
       </c>
       <c r="K297" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>1.020999999999999</v>
@@ -15528,7 +15546,7 @@
         <v>1.920000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>1.020999999999999</v>
@@ -15579,7 +15597,7 @@
         <v>1.920000000000001</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>1.020999999999999</v>
@@ -15629,9 +15647,7 @@
       <c r="J302" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K302" t="n">
-        <v>0</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15680,9 +15696,7 @@
       <c r="J303" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K303" t="n">
-        <v>0</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15731,9 +15745,7 @@
       <c r="J304" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K304" t="n">
-        <v>0</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15782,9 +15794,7 @@
       <c r="J305" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K305" t="n">
-        <v>0</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15833,9 +15843,7 @@
       <c r="J306" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K306" t="n">
-        <v>0</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15884,9 +15892,7 @@
       <c r="J307" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K307" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15935,9 +15941,7 @@
       <c r="J308" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K308" t="n">
-        <v>0</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -15986,9 +15990,7 @@
       <c r="J309" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K309" t="n">
-        <v>0</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -16037,9 +16039,7 @@
       <c r="J310" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K310" t="n">
-        <v>0</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -16088,9 +16088,7 @@
       <c r="J311" t="n">
         <v>1.920000000000001</v>
       </c>
-      <c r="K311" t="n">
-        <v>0</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -16599,7 +16597,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>1.014999999999999</v>
@@ -16650,7 +16648,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>1.015999999999999</v>
@@ -16701,7 +16699,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>1.016999999999999</v>
@@ -16803,7 +16801,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L325" t="n">
         <v>1.017999999999999</v>
@@ -16854,7 +16852,7 @@
         <v>1.960000000000001</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L326" t="n">
         <v>1.018999999999999</v>
@@ -16904,9 +16902,7 @@
       <c r="J327" t="n">
         <v>1.960000000000001</v>
       </c>
-      <c r="K327" t="n">
-        <v>0</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -16955,9 +16951,7 @@
       <c r="J328" t="n">
         <v>1.960000000000001</v>
       </c>
-      <c r="K328" t="n">
-        <v>0</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1.019999999999999</v>
       </c>
@@ -17007,7 +17001,7 @@
         <v>1.970000000000001</v>
       </c>
       <c r="K329" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L329" t="n">
         <v>1.020999999999999</v>
@@ -17109,7 +17103,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="K331" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L331" t="n">
         <v>1.022999999999999</v>
@@ -17160,7 +17154,7 @@
         <v>2.030000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>59.99999999999986</v>
+        <v>71.4285714285712</v>
       </c>
       <c r="L332" t="n">
         <v>1.027999999999999</v>
@@ -17211,7 +17205,7 @@
         <v>2.060000000000001</v>
       </c>
       <c r="K333" t="n">
-        <v>23.076923076923</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L333" t="n">
         <v>1.029999999999999</v>
@@ -17262,7 +17256,7 @@
         <v>2.080000000000001</v>
       </c>
       <c r="K334" t="n">
-        <v>33.33333333333324</v>
+        <v>33.33333333333321</v>
       </c>
       <c r="L334" t="n">
         <v>1.033999999999999</v>
@@ -17313,7 +17307,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K335" t="n">
-        <v>37.49999999999989</v>
+        <v>42.85714285714272</v>
       </c>
       <c r="L335" t="n">
         <v>1.04</v>
@@ -17364,7 +17358,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K336" t="n">
-        <v>46.66666666666653</v>
+        <v>42.85714285714272</v>
       </c>
       <c r="L336" t="n">
         <v>1.046</v>
@@ -17415,7 +17409,7 @@
         <v>2.100000000000001</v>
       </c>
       <c r="K337" t="n">
-        <v>46.66666666666653</v>
+        <v>42.85714285714272</v>
       </c>
       <c r="L337" t="n">
         <v>1.052</v>
@@ -17466,7 +17460,7 @@
         <v>2.120000000000001</v>
       </c>
       <c r="K338" t="n">
-        <v>24.99999999999993</v>
+        <v>19.99999999999994</v>
       </c>
       <c r="L338" t="n">
         <v>1.056</v>
@@ -17517,7 +17511,7 @@
         <v>2.140000000000001</v>
       </c>
       <c r="K339" t="n">
-        <v>33.33333333333325</v>
+        <v>37.49999999999989</v>
       </c>
       <c r="L339" t="n">
         <v>1.061</v>
@@ -17568,7 +17562,7 @@
         <v>2.150000000000001</v>
       </c>
       <c r="K340" t="n">
-        <v>26.31578947368418</v>
+        <v>19.99999999999997</v>
       </c>
       <c r="L340" t="n">
         <v>1.066</v>
@@ -17619,7 +17613,7 @@
         <v>2.150000000000001</v>
       </c>
       <c r="K341" t="n">
-        <v>26.31578947368418</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>1.069</v>
@@ -17670,7 +17664,7 @@
         <v>2.160000000000001</v>
       </c>
       <c r="K342" t="n">
-        <v>30</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L342" t="n">
         <v>1.07</v>
@@ -17721,7 +17715,7 @@
         <v>2.160000000000001</v>
       </c>
       <c r="K343" t="n">
-        <v>30</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L343" t="n">
         <v>1.074</v>
@@ -17772,7 +17766,7 @@
         <v>2.170000000000001</v>
       </c>
       <c r="K344" t="n">
-        <v>23.80952380952384</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L344" t="n">
         <v>1.075</v>
@@ -17823,7 +17817,7 @@
         <v>2.180000000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>27.27272727272733</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>1.075</v>
@@ -17874,7 +17868,7 @@
         <v>2.19</v>
       </c>
       <c r="K346" t="n">
-        <v>21.73913043478267</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L346" t="n">
         <v>1.074</v>
@@ -17925,7 +17919,7 @@
         <v>2.2</v>
       </c>
       <c r="K347" t="n">
-        <v>16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>1.072</v>
@@ -17976,7 +17970,7 @@
         <v>2.21</v>
       </c>
       <c r="K348" t="n">
-        <v>12.00000000000005</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L348" t="n">
         <v>1.071</v>
@@ -18027,7 +18021,7 @@
         <v>2.23</v>
       </c>
       <c r="K349" t="n">
-        <v>15.38461538461545</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>1.07</v>
@@ -18078,7 +18072,7 @@
         <v>2.24</v>
       </c>
       <c r="K350" t="n">
-        <v>15.38461538461544</v>
+        <v>-11.11111111111125</v>
       </c>
       <c r="L350" t="n">
         <v>1.069</v>
@@ -18129,7 +18123,7 @@
         <v>2.24</v>
       </c>
       <c r="K351" t="n">
-        <v>8.333333333333364</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L351" t="n">
         <v>1.068</v>
@@ -18180,7 +18174,7 @@
         <v>2.24</v>
       </c>
       <c r="K352" t="n">
-        <v>-4.761904761904788</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L352" t="n">
         <v>1.066</v>
@@ -18231,7 +18225,7 @@
         <v>2.25</v>
       </c>
       <c r="K353" t="n">
-        <v>5.263157894736885</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L353" t="n">
         <v>1.063</v>
@@ -18282,7 +18276,7 @@
         <v>2.26</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L354" t="n">
         <v>1.062</v>
@@ -18333,7 +18327,7 @@
         <v>2.26</v>
       </c>
       <c r="K355" t="n">
-        <v>-12.50000000000014</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L355" t="n">
         <v>1.06</v>
@@ -18384,7 +18378,7 @@
         <v>2.27</v>
       </c>
       <c r="K356" t="n">
-        <v>-17.64705882352962</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L356" t="n">
         <v>1.058</v>
@@ -18435,7 +18429,7 @@
         <v>2.279999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-22.22222222222249</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L357" t="n">
         <v>1.056</v>
@@ -18486,7 +18480,7 @@
         <v>2.289999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-17.64705882352967</v>
+        <v>-66.66666666666765</v>
       </c>
       <c r="L358" t="n">
         <v>1.054</v>
@@ -18537,7 +18531,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>-37.50000000000063</v>
+        <v>-66.66666666666815</v>
       </c>
       <c r="L359" t="n">
         <v>1.049</v>
@@ -18588,7 +18582,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>-25.00000000000042</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L360" t="n">
         <v>1.046</v>
@@ -18639,7 +18633,7 @@
         <v>2.309999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-25.00000000000042</v>
+        <v>-42.85714285714381</v>
       </c>
       <c r="L361" t="n">
         <v>1.043</v>
@@ -18690,7 +18684,7 @@
         <v>2.319999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>-25.00000000000042</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L362" t="n">
         <v>1.040999999999999</v>
@@ -18741,7 +18735,7 @@
         <v>2.329999999999998</v>
       </c>
       <c r="K363" t="n">
-        <v>-17.64705882352971</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L363" t="n">
         <v>1.040999999999999</v>
@@ -18792,7 +18786,7 @@
         <v>2.339999999999998</v>
       </c>
       <c r="K364" t="n">
-        <v>-5.88235294117657</v>
+        <v>0</v>
       </c>
       <c r="L364" t="n">
         <v>1.040999999999999</v>
@@ -18843,7 +18837,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K365" t="n">
-        <v>-17.64705882352971</v>
+        <v>0</v>
       </c>
       <c r="L365" t="n">
         <v>1.04</v>
@@ -18894,7 +18888,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K366" t="n">
-        <v>-12.50000000000021</v>
+        <v>14.2857142857146</v>
       </c>
       <c r="L366" t="n">
         <v>1.04</v>
@@ -18945,7 +18939,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K367" t="n">
-        <v>-6.666666666666774</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L367" t="n">
         <v>1.041</v>
@@ -18996,7 +18990,7 @@
         <v>2.349999999999998</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>60.00000000000133</v>
       </c>
       <c r="L368" t="n">
         <v>1.043</v>
@@ -19047,7 +19041,7 @@
         <v>2.359999999999998</v>
       </c>
       <c r="K369" t="n">
-        <v>-23.07692307692351</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L369" t="n">
         <v>1.045</v>
@@ -19098,7 +19092,7 @@
         <v>2.359999999999998</v>
       </c>
       <c r="K370" t="n">
-        <v>-16.66666666666704</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L370" t="n">
         <v>1.046</v>
@@ -19149,7 +19143,7 @@
         <v>2.369999999999997</v>
       </c>
       <c r="K371" t="n">
-        <v>-7.692307692307863</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L371" t="n">
         <v>1.048</v>
@@ -19200,7 +19194,7 @@
         <v>2.379999999999997</v>
       </c>
       <c r="K372" t="n">
-        <v>-14.2857142857146</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L372" t="n">
         <v>1.048</v>
@@ -19251,7 +19245,7 @@
         <v>2.379999999999997</v>
       </c>
       <c r="K373" t="n">
-        <v>-7.692307692307863</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L373" t="n">
         <v>1.047</v>
@@ -19302,7 +19296,7 @@
         <v>2.379999999999997</v>
       </c>
       <c r="K374" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L374" t="n">
         <v>1.045</v>
@@ -19353,7 +19347,7 @@
         <v>2.399999999999997</v>
       </c>
       <c r="K375" t="n">
-        <v>-28.57142857142911</v>
+        <v>-60.0000000000008</v>
       </c>
       <c r="L375" t="n">
         <v>1.042</v>
@@ -19404,7 +19398,7 @@
         <v>2.409999999999997</v>
       </c>
       <c r="K376" t="n">
-        <v>-14.28571428571451</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L376" t="n">
         <v>1.04</v>
@@ -19455,7 +19449,7 @@
         <v>2.409999999999997</v>
       </c>
       <c r="K377" t="n">
-        <v>-7.692307692307811</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L377" t="n">
         <v>1.037999999999999</v>
@@ -19506,7 +19500,7 @@
         <v>2.409999999999997</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L378" t="n">
         <v>1.035999999999999</v>
@@ -19557,7 +19551,7 @@
         <v>2.419999999999997</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L379" t="n">
         <v>1.033999999999999</v>
@@ -19608,7 +19602,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>-33.33333333333358</v>
       </c>
       <c r="L380" t="n">
         <v>1.032999999999999</v>
@@ -19659,7 +19653,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L381" t="n">
         <v>1.030999999999999</v>
@@ -19710,7 +19704,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K382" t="n">
-        <v>-9.09090909090922</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L382" t="n">
         <v>1.029999999999999</v>
@@ -19761,7 +19755,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K383" t="n">
-        <v>-20.00000000000027</v>
+        <v>-20.00000000000009</v>
       </c>
       <c r="L383" t="n">
         <v>1.028999999999999</v>
@@ -19812,7 +19806,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K384" t="n">
-        <v>-33.33333333333374</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L384" t="n">
         <v>1.027999999999999</v>
@@ -19863,7 +19857,7 @@
         <v>2.429999999999997</v>
       </c>
       <c r="K385" t="n">
-        <v>-25.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>1.028999999999999</v>
@@ -19914,7 +19908,7 @@
         <v>2.439999999999997</v>
       </c>
       <c r="K386" t="n">
-        <v>-11.11111111111125</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L386" t="n">
         <v>1.029999999999999</v>
@@ -19965,7 +19959,7 @@
         <v>2.439999999999997</v>
       </c>
       <c r="K387" t="n">
-        <v>-11.11111111111125</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L387" t="n">
         <v>1.030999999999999</v>
@@ -20016,7 +20010,7 @@
         <v>2.439999999999997</v>
       </c>
       <c r="K388" t="n">
-        <v>-11.11111111111125</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L388" t="n">
         <v>1.031999999999999</v>
@@ -20067,7 +20061,7 @@
         <v>2.449999999999997</v>
       </c>
       <c r="K389" t="n">
-        <v>-11.11111111111125</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>1.032999999999999</v>
@@ -20118,7 +20112,7 @@
         <v>2.449999999999997</v>
       </c>
       <c r="K390" t="n">
-        <v>-11.11111111111125</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>1.032999999999999</v>
@@ -20169,7 +20163,7 @@
         <v>2.459999999999996</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111125</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L391" t="n">
         <v>1.033999999999999</v>
@@ -20220,7 +20214,7 @@
         <v>2.459999999999996</v>
       </c>
       <c r="K392" t="n">
-        <v>0</v>
+        <v>33.33333333333407</v>
       </c>
       <c r="L392" t="n">
         <v>1.034999999999999</v>
@@ -20271,7 +20265,7 @@
         <v>2.469999999999996</v>
       </c>
       <c r="K393" t="n">
-        <v>11.11111111111125</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L393" t="n">
         <v>1.036999999999999</v>
@@ -20322,7 +20316,7 @@
         <v>2.479999999999996</v>
       </c>
       <c r="K394" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L394" t="n">
         <v>1.037999999999999</v>
@@ -20373,7 +20367,7 @@
         <v>2.489999999999996</v>
       </c>
       <c r="K395" t="n">
-        <v>33.33333333333391</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L395" t="n">
         <v>1.04</v>
@@ -20424,7 +20418,7 @@
         <v>2.489999999999996</v>
       </c>
       <c r="K396" t="n">
-        <v>25.00000000000055</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L396" t="n">
         <v>1.041</v>
@@ -20475,7 +20469,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K397" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>1.041</v>
@@ -20526,7 +20520,7 @@
         <v>2.499999999999996</v>
       </c>
       <c r="K398" t="n">
-        <v>11.11111111111136</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L398" t="n">
         <v>1.041</v>
@@ -20628,7 +20622,7 @@
         <v>2.509999999999995</v>
       </c>
       <c r="K400" t="n">
-        <v>25.00000000000055</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L400" t="n">
         <v>1.045</v>
@@ -20679,7 +20673,7 @@
         <v>2.509999999999995</v>
       </c>
       <c r="K401" t="n">
-        <v>25.00000000000055</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L401" t="n">
         <v>1.046</v>
@@ -20730,7 +20724,7 @@
         <v>2.509999999999995</v>
       </c>
       <c r="K402" t="n">
-        <v>25.00000000000055</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>1.047</v>
@@ -20781,7 +20775,7 @@
         <v>2.519999999999995</v>
       </c>
       <c r="K403" t="n">
-        <v>11.11111111111136</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>1.046</v>
@@ -20832,7 +20826,7 @@
         <v>2.519999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>11.11111111111136</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L404" t="n">
         <v>1.046</v>
@@ -20883,7 +20877,7 @@
         <v>2.529999999999995</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L405" t="n">
         <v>1.044</v>
@@ -21036,7 +21030,7 @@
         <v>2.539999999999995</v>
       </c>
       <c r="K408" t="n">
-        <v>0</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L408" t="n">
         <v>1.043</v>
@@ -21087,7 +21081,7 @@
         <v>2.539999999999995</v>
       </c>
       <c r="K409" t="n">
-        <v>11.11111111111136</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L409" t="n">
         <v>1.042</v>
@@ -21138,7 +21132,7 @@
         <v>2.549999999999994</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>-50.00000000000111</v>
       </c>
       <c r="L410" t="n">
         <v>1.04</v>
@@ -21189,7 +21183,7 @@
         <v>2.559999999999994</v>
       </c>
       <c r="K411" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L411" t="n">
         <v>1.039</v>
@@ -21240,7 +21234,7 @@
         <v>2.569999999999994</v>
       </c>
       <c r="K412" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L412" t="n">
         <v>1.036999999999999</v>
@@ -21291,7 +21285,7 @@
         <v>2.579999999999994</v>
       </c>
       <c r="K413" t="n">
-        <v>-27.27272727272788</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L413" t="n">
         <v>1.034999999999999</v>
@@ -21342,7 +21336,7 @@
         <v>2.589999999999994</v>
       </c>
       <c r="K414" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>1.033999999999999</v>
@@ -21495,7 +21489,7 @@
         <v>2.589999999999994</v>
       </c>
       <c r="K417" t="n">
-        <v>-11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L417" t="n">
         <v>1.031999999999999</v>
@@ -21546,7 +21540,7 @@
         <v>2.589999999999994</v>
       </c>
       <c r="K418" t="n">
-        <v>-11.11111111111136</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L418" t="n">
         <v>1.030999999999999</v>
@@ -21597,7 +21591,7 @@
         <v>2.599999999999993</v>
       </c>
       <c r="K419" t="n">
-        <v>-11.11111111111136</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L419" t="n">
         <v>1.030999999999999</v>
@@ -21699,7 +21693,7 @@
         <v>2.619999999999993</v>
       </c>
       <c r="K421" t="n">
-        <v>-9.090909090909292</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L421" t="n">
         <v>1.030999999999999</v>
@@ -21750,7 +21744,7 @@
         <v>2.629999999999993</v>
       </c>
       <c r="K422" t="n">
-        <v>-16.66666666666704</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L422" t="n">
         <v>1.030999999999999</v>
@@ -21801,7 +21795,7 @@
         <v>2.629999999999993</v>
       </c>
       <c r="K423" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>1.031999999999999</v>
@@ -21852,7 +21846,7 @@
         <v>2.639999999999993</v>
       </c>
       <c r="K424" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L424" t="n">
         <v>1.030999999999999</v>
@@ -21903,7 +21897,7 @@
         <v>2.649999999999992</v>
       </c>
       <c r="K425" t="n">
-        <v>-16.66666666666704</v>
+        <v>-33.33333333333407</v>
       </c>
       <c r="L425" t="n">
         <v>1.028999999999999</v>
@@ -21954,7 +21948,7 @@
         <v>2.659999999999992</v>
       </c>
       <c r="K426" t="n">
-        <v>-16.66666666666704</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L426" t="n">
         <v>1.027999999999999</v>
@@ -22005,7 +21999,7 @@
         <v>2.669999999999992</v>
       </c>
       <c r="K427" t="n">
-        <v>-7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>1.027999999999999</v>
@@ -22056,7 +22050,7 @@
         <v>2.669999999999992</v>
       </c>
       <c r="K428" t="n">
-        <v>-7.692307692307863</v>
+        <v>-14.2857142857146</v>
       </c>
       <c r="L428" t="n">
         <v>1.027999999999999</v>
@@ -22107,7 +22101,7 @@
         <v>2.669999999999992</v>
       </c>
       <c r="K429" t="n">
-        <v>-7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>1.026999999999999</v>
@@ -22158,7 +22152,7 @@
         <v>2.669999999999992</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L430" t="n">
         <v>1.026999999999999</v>
@@ -22209,7 +22203,7 @@
         <v>2.679999999999992</v>
       </c>
       <c r="K431" t="n">
-        <v>-16.66666666666704</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L431" t="n">
         <v>1.024999999999999</v>
@@ -22260,7 +22254,7 @@
         <v>2.679999999999992</v>
       </c>
       <c r="K432" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L432" t="n">
         <v>1.023999999999999</v>
@@ -22362,7 +22356,7 @@
         <v>2.689999999999992</v>
       </c>
       <c r="K434" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L434" t="n">
         <v>1.023999999999999</v>
@@ -22413,7 +22407,7 @@
         <v>2.699999999999991</v>
       </c>
       <c r="K435" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>1.024999999999999</v>
@@ -22566,7 +22560,7 @@
         <v>2.719999999999991</v>
       </c>
       <c r="K438" t="n">
-        <v>7.692307692307863</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L438" t="n">
         <v>1.026999999999999</v>
@@ -22617,7 +22611,7 @@
         <v>2.729999999999991</v>
       </c>
       <c r="K439" t="n">
-        <v>-7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>1.026999999999999</v>
@@ -22668,7 +22662,7 @@
         <v>2.729999999999991</v>
       </c>
       <c r="K440" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L440" t="n">
         <v>1.026999999999999</v>
@@ -22719,7 +22713,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K441" t="n">
-        <v>-16.66666666666704</v>
+        <v>0</v>
       </c>
       <c r="L441" t="n">
         <v>1.026999999999999</v>
@@ -22770,7 +22764,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K442" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>1.026999999999999</v>
@@ -22821,7 +22815,7 @@
         <v>2.73999999999999</v>
       </c>
       <c r="K443" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L443" t="n">
         <v>1.026999999999999</v>
@@ -22872,7 +22866,7 @@
         <v>2.74999999999999</v>
       </c>
       <c r="K444" t="n">
-        <v>9.090909090909292</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L444" t="n">
         <v>1.026999999999999</v>
@@ -22923,7 +22917,7 @@
         <v>2.75999999999999</v>
       </c>
       <c r="K445" t="n">
-        <v>9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L445" t="n">
         <v>1.026999999999999</v>
@@ -22974,7 +22968,7 @@
         <v>2.76999999999999</v>
       </c>
       <c r="K446" t="n">
-        <v>9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>1.026999999999999</v>
@@ -23025,7 +23019,7 @@
         <v>2.76999999999999</v>
       </c>
       <c r="K447" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L447" t="n">
         <v>1.026999999999999</v>
@@ -23076,7 +23070,7 @@
         <v>2.77999999999999</v>
       </c>
       <c r="K448" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L448" t="n">
         <v>1.024999999999999</v>
@@ -23127,7 +23121,7 @@
         <v>2.77999999999999</v>
       </c>
       <c r="K449" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L449" t="n">
         <v>1.023999999999999</v>
@@ -23178,7 +23172,7 @@
         <v>2.789999999999989</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>20.00000000000044</v>
       </c>
       <c r="L450" t="n">
         <v>1.023999999999999</v>
@@ -23331,7 +23325,7 @@
         <v>2.809999999999989</v>
       </c>
       <c r="K453" t="n">
-        <v>7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L453" t="n">
         <v>1.024999999999999</v>
@@ -23382,7 +23376,7 @@
         <v>2.819999999999989</v>
       </c>
       <c r="K454" t="n">
-        <v>-7.692307692307863</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>1.023999999999999</v>
@@ -23433,7 +23427,7 @@
         <v>2.819999999999989</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L455" t="n">
         <v>1.023999999999999</v>
@@ -23484,7 +23478,7 @@
         <v>2.819999999999989</v>
       </c>
       <c r="K456" t="n">
-        <v>-9.090909090909292</v>
+        <v>-20.00000000000044</v>
       </c>
       <c r="L456" t="n">
         <v>1.022999999999999</v>
@@ -23535,7 +23529,7 @@
         <v>2.819999999999989</v>
       </c>
       <c r="K457" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>1.021999999999999</v>
@@ -23586,7 +23580,7 @@
         <v>2.819999999999989</v>
       </c>
       <c r="K458" t="n">
-        <v>-20.00000000000044</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>1.021999999999999</v>
@@ -23688,7 +23682,7 @@
         <v>2.839999999999988</v>
       </c>
       <c r="K460" t="n">
-        <v>-9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L460" t="n">
         <v>1.021999999999999</v>
@@ -23790,7 +23784,7 @@
         <v>2.849999999999988</v>
       </c>
       <c r="K462" t="n">
-        <v>9.090909090909292</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>1.022999999999999</v>

--- a/BackTest/2019-10-11 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-11 BackTest TMTG.xlsx
@@ -1291,17 +1291,13 @@
         <v>1.015666666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1330,22 +1326,14 @@
         <v>1.015333333333335</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1373,22 +1361,14 @@
         <v>1.015166666666668</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1416,17 +1396,13 @@
         <v>1.015166666666668</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1455,22 +1431,14 @@
         <v>1.015000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,22 +1466,14 @@
         <v>1.014833333333335</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1541,17 +1501,13 @@
         <v>1.014833333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
@@ -1580,22 +1536,14 @@
         <v>1.014666666666668</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1571,14 @@
         <v>1.014333333333335</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1666,17 +1606,13 @@
         <v>1.014166666666668</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1705,22 +1641,14 @@
         <v>1.014166666666668</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1748,22 +1676,14 @@
         <v>1.013833333333335</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1791,22 +1711,14 @@
         <v>1.013833333333335</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1834,22 +1746,14 @@
         <v>1.013500000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1877,22 +1781,14 @@
         <v>1.013500000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1920,22 +1816,14 @@
         <v>1.013333333333335</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1963,22 +1851,14 @@
         <v>1.013333333333335</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2006,22 +1886,14 @@
         <v>1.013333333333335</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2049,22 +1921,14 @@
         <v>1.013166666666668</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2092,22 +1956,14 @@
         <v>1.013000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2135,22 +1991,14 @@
         <v>1.013000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2178,22 +2026,14 @@
         <v>1.012666666666668</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2221,22 +2061,14 @@
         <v>1.012333333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2264,22 +2096,14 @@
         <v>1.012000000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2307,22 +2131,14 @@
         <v>1.011833333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2166,14 @@
         <v>1.011666666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2201,14 @@
         <v>1.011500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2236,14 @@
         <v>1.012166666666668</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2526,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2564,17 +2344,11 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2608,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2649,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2690,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2731,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2810,19 +2554,13 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>1.103910891089109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2851,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -4108,13 +3846,17 @@
         <v>1.063666666666667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.05</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -4143,14 +3885,22 @@
         <v>1.064333333333334</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4184,8 +3934,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4219,8 +3975,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +4010,22 @@
         <v>1.066666666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4100,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4141,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4394,8 +4182,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4429,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4464,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4499,8 +4305,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4604,8 +4428,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4639,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4674,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4709,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4814,8 +4674,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4849,8 +4715,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4884,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4989,8 +4879,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +4920,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +4961,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5094,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5129,8 +5043,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5164,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5199,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5234,8 +5166,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5269,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +5248,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5339,8 +5289,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5374,8 +5330,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5409,8 +5371,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5444,8 +5412,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5479,8 +5453,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +5494,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5549,8 +5535,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5584,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5619,8 +5617,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5654,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +5699,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5724,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5759,8 +5781,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5794,8 +5822,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5829,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5864,8 +5904,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +5945,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5934,8 +5986,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5969,8 +6027,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6004,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6039,8 +6109,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +6150,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6144,8 +6232,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +6273,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6314,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6249,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6284,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6319,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6354,8 +6478,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6389,8 +6519,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6424,8 +6560,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6494,8 +6642,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +6683,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6564,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6599,8 +6765,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6634,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +6847,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6704,8 +6888,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6739,8 +6929,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6774,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6809,8 +7011,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6844,8 +7052,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6879,8 +7093,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6914,8 +7134,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6949,8 +7175,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6984,8 +7216,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7019,8 +7257,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7298,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7089,8 +7339,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7124,8 +7380,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7159,8 +7421,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7194,8 +7462,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7229,8 +7503,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +7544,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7299,8 +7585,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +7626,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7404,8 +7708,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7439,8 +7749,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7474,8 +7790,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7509,8 +7831,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7544,8 +7872,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7579,8 +7913,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7649,8 +7995,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8036,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7719,8 +8077,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7754,8 +8118,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +8159,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7859,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7894,8 +8282,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7929,8 +8323,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7964,8 +8364,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8034,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8069,8 +8487,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8104,8 +8528,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8139,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +8610,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8651,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8244,8 +8692,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8279,8 +8733,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8314,8 +8774,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8349,8 +8815,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8384,8 +8856,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +8897,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8454,8 +8938,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8489,8 +8979,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8524,8 +9020,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8559,8 +9061,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8594,8 +9102,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8629,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8664,8 +9184,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8699,8 +9225,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8734,8 +9266,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8769,8 +9307,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8804,8 +9348,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +9389,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8874,8 +9430,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8909,8 +9471,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9512,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8979,8 +9553,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9014,8 +9594,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9049,8 +9635,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9084,8 +9676,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9119,8 +9717,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9154,8 +9758,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9189,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9224,8 +9840,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9259,8 +9881,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9294,8 +9922,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9329,8 +9963,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9364,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9399,8 +10045,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9434,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9469,8 +10127,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9504,8 +10168,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +10209,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +10250,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9609,8 +10291,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9644,8 +10332,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9679,8 +10373,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9714,8 +10414,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9749,8 +10455,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10496,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9819,8 +10537,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9854,8 +10578,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9889,8 +10619,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9924,8 +10660,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9959,8 +10701,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +10742,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10029,8 +10783,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10064,8 +10824,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10099,8 +10865,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10134,8 +10906,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10169,8 +10947,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10204,8 +10988,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10239,8 +11029,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10274,8 +11070,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10309,8 +11111,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10344,8 +11152,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10379,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10414,8 +11234,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10449,8 +11275,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10484,8 +11316,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10519,8 +11357,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10554,8 +11398,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10589,8 +11439,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10624,8 +11480,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10659,8 +11521,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +11562,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +11603,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10764,8 +11644,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10799,8 +11685,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +11726,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10869,8 +11767,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10904,8 +11808,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10939,8 +11849,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10974,8 +11890,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11009,8 +11931,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11044,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11079,8 +12013,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11114,8 +12054,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +12095,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11184,8 +12136,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11219,8 +12177,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11254,8 +12218,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11289,8 +12259,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +12300,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11359,8 +12341,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11394,8 +12382,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11429,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11464,8 +12464,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11499,8 +12505,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11534,8 +12546,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11569,8 +12587,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11604,8 +12628,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11639,8 +12669,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12710,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11709,8 +12751,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11744,8 +12792,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11779,8 +12833,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11814,8 +12874,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12915,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +12956,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11919,8 +12997,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11954,8 +13038,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +13079,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +13120,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12059,8 +13161,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12094,8 +13202,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12129,8 +13243,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12164,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12199,8 +13325,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12234,8 +13366,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12269,8 +13407,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12304,8 +13448,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12339,8 +13489,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12374,8 +13530,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12409,8 +13571,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12444,8 +13612,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12479,8 +13653,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12514,8 +13694,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12549,8 +13735,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12584,8 +13776,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12619,8 +13817,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12654,8 +13858,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12689,8 +13899,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -12724,8 +13940,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -12759,8 +13981,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -12794,8 +14022,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -12829,8 +14063,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -12864,8 +14104,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -12899,8 +14145,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -12934,8 +14186,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -12969,8 +14227,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +14268,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13039,8 +14309,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13074,8 +14350,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13109,8 +14391,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13144,8 +14432,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13179,8 +14473,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13214,8 +14514,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13249,8 +14555,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13284,8 +14596,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13319,8 +14637,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13354,8 +14678,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13389,8 +14719,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13424,8 +14760,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13459,8 +14801,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13494,8 +14842,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13529,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13564,8 +14924,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13599,8 +14965,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13634,8 +15006,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13669,8 +15047,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13704,8 +15088,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13739,8 +15129,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13774,8 +15170,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13809,8 +15211,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13844,8 +15252,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13879,8 +15293,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13914,8 +15334,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13949,8 +15375,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -13978,14 +15410,22 @@
         <v>1.047000000000002</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K381" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14013,14 +15453,22 @@
         <v>1.047166666666668</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K382" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14048,14 +15496,22 @@
         <v>1.047333333333335</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K383" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14083,14 +15539,22 @@
         <v>1.047500000000002</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K384" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +15582,22 @@
         <v>1.047666666666668</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K385" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14153,14 +15625,22 @@
         <v>1.048000000000001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K386" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14188,14 +15668,22 @@
         <v>1.048333333333335</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K387" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14223,14 +15711,22 @@
         <v>1.048666666666668</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K388" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14264,8 +15760,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14299,8 +15801,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14334,8 +15842,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14369,8 +15883,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14404,8 +15924,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14439,8 +15965,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14474,8 +16006,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14509,8 +16047,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14544,8 +16088,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14579,8 +16129,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14614,8 +16170,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14649,8 +16211,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14684,8 +16252,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14719,8 +16293,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14754,8 +16334,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14789,8 +16375,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14824,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14859,8 +16457,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14894,8 +16498,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14929,8 +16539,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14964,8 +16580,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14999,8 +16621,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15034,8 +16662,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +16703,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15104,8 +16744,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +16785,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15174,8 +16826,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15209,8 +16867,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15244,8 +16908,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15279,8 +16949,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +16990,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15349,8 +17031,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15384,8 +17072,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15419,8 +17113,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15454,8 +17154,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15489,8 +17195,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15524,8 +17236,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15559,8 +17277,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15594,8 +17318,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15629,8 +17359,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15664,8 +17400,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15699,8 +17441,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15734,8 +17482,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +17523,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15804,8 +17564,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15839,8 +17605,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15874,8 +17646,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15909,8 +17687,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15944,8 +17728,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15979,8 +17769,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16014,8 +17810,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16049,8 +17851,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16084,8 +17892,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-11 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-11 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2384281.813800002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2384161.339600001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2384161.339600001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-2384161.339600001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-2384270.944100001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-2381170.944100001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-2381284.439300001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,14 +682,10 @@
         <v>-2381284.439300001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -759,19 +715,11 @@
         <v>-2381284.439300001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -800,19 +748,11 @@
         <v>-2381284.439300001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,14 +781,10 @@
         <v>-2371284.439300001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -878,19 +814,11 @@
         <v>-2371420.317300001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,19 +847,11 @@
         <v>-2371420.317300001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -960,14 +880,10 @@
         <v>-2371296.585200001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -997,19 +913,11 @@
         <v>-2371408.697200001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,19 +946,11 @@
         <v>-2371266.206900001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1079,14 +979,10 @@
         <v>-2371370.459200001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1116,19 +1012,11 @@
         <v>-2371370.459200001</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1157,19 +1045,11 @@
         <v>-2371261.306200001</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1198,14 +1078,10 @@
         <v>-2371261.306200001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1235,19 +1111,11 @@
         <v>-2371261.306200001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1144,11 @@
         <v>-2371410.769200001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1317,14 +1177,10 @@
         <v>-2371265.834500001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1354,19 +1210,11 @@
         <v>-2371265.834500001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1395,19 +1243,11 @@
         <v>-2371265.834500001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1276,10 @@
         <v>-2371265.834500001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1473,19 +1309,11 @@
         <v>-2371411.613700001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1514,19 +1342,11 @@
         <v>-2371411.613700001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1555,14 +1375,10 @@
         <v>-2371292.948100001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1592,19 +1408,11 @@
         <v>-2371440.653600001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1633,19 +1441,11 @@
         <v>-2371440.653600001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1674,14 +1474,10 @@
         <v>-2371333.337700001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1711,19 +1507,11 @@
         <v>-2371333.337700001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1752,19 +1540,11 @@
         <v>-2371479.307200002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1573,10 @@
         <v>-2371337.176300001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1832,17 +1608,9 @@
       <c r="H37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1871,19 +1639,11 @@
         <v>-2371327.606700002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1914,12 +1674,8 @@
       <c r="H39" t="n">
         <v>2</v>
       </c>
-      <c r="I39" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1949,19 +1705,11 @@
         <v>-2371458.893600002</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1992,17 +1740,9 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2031,14 +1771,10 @@
         <v>-2371458.893600002</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -2070,17 +1806,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2109,19 +1837,11 @@
         <v>-2371476.802800002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2152,12 +1872,8 @@
       <c r="H45" t="n">
         <v>2</v>
       </c>
-      <c r="I45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -2187,19 +1903,11 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2230,17 +1938,9 @@
       <c r="H47" t="n">
         <v>2</v>
       </c>
-      <c r="I47" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2271,12 +1971,8 @@
       <c r="H48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2308,17 +2004,9 @@
       <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2349,17 +2037,9 @@
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2388,7 +2068,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2423,15 +2103,9 @@
       <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="I52" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2460,15 +2134,11 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2497,15 +2167,11 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2534,15 +2200,11 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2571,15 +2233,11 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2608,15 +2266,11 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2686,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2723,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2760,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2871,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2908,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2982,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3019,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3130,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3163,17 +2761,11 @@
         <v>-149126356.6415</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3206,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3243,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3280,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3354,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3391,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3502,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3539,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3576,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3613,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3650,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3683,17 +3223,11 @@
         <v>-149266924.9649</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3722,17 +3256,11 @@
         <v>-149266817.1199</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3761,17 +3289,11 @@
         <v>-149266817.1199</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3837,15 +3355,15 @@
         <v>-149266825.5742</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3874,13 +3392,17 @@
         <v>-149266825.5742</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3911,13 +3433,17 @@
         <v>-149266945.8509</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3948,17 +3474,11 @@
         <v>-149266945.8509</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3987,17 +3507,11 @@
         <v>-149266819.2062</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4026,17 +3540,11 @@
         <v>-149266819.2062</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +3577,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4106,11 +3610,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4139,17 +3639,11 @@
         <v>-149350657.1967</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4178,17 +3672,11 @@
         <v>-149350530.4177</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4217,17 +3705,11 @@
         <v>-149934334.576</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4256,17 +3738,11 @@
         <v>-149934212.758</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4295,17 +3771,11 @@
         <v>-149934212.758</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4338,11 +3808,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4375,11 +3841,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4412,11 +3874,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +3907,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +3940,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +3973,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4560,11 +4006,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4039,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4072,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4671,11 +4105,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4138,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4171,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4204,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4819,11 +4237,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4856,11 +4270,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4893,11 +4303,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4930,11 +4336,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4369,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5000,16 +4398,14 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
       <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
@@ -5101,7 +4497,7 @@
         <v>-119910106.896256</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5134,7 +4530,7 @@
         <v>-121773646.833956</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5167,7 +4563,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5200,7 +4596,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5233,7 +4629,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5266,7 +4662,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5299,7 +4695,7 @@
         <v>-123133340.922756</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5332,7 +4728,7 @@
         <v>-121887220.032656</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5365,7 +4761,7 @@
         <v>-122292873.350656</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5398,7 +4794,7 @@
         <v>-126489942.181856</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5431,7 +4827,7 @@
         <v>-126489942.181856</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5464,7 +4860,7 @@
         <v>-126489942.181856</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5497,11 +4893,17 @@
         <v>-122094390.1721931</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.07</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5530,11 +4932,17 @@
         <v>-123586859.1567931</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.08</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5563,11 +4971,17 @@
         <v>-126087569.2045931</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.07</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5596,11 +5010,17 @@
         <v>-126087569.2045931</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5629,11 +5049,17 @@
         <v>-123937564.9548931</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5662,11 +5088,17 @@
         <v>-120953227.9889931</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5695,11 +5127,17 @@
         <v>-120953227.9889931</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1.07</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5728,11 +5166,17 @@
         <v>-120974063.4250931</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.07</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5761,11 +5205,17 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5794,11 +5244,17 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5827,11 +5283,17 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5862,9 +5324,15 @@
       <c r="H147" t="n">
         <v>1</v>
       </c>
-      <c r="I147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5893,11 +5361,17 @@
         <v>-126445175.4654931</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5928,9 +5402,15 @@
       <c r="H149" t="n">
         <v>1</v>
       </c>
-      <c r="I149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5961,9 +5441,15 @@
       <c r="H150" t="n">
         <v>1</v>
       </c>
-      <c r="I150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +5478,15 @@
         <v>-126086297.4245931</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5515,15 @@
         <v>-126106986.5245931</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6060,9 +5554,15 @@
       <c r="H153" t="n">
         <v>1</v>
       </c>
-      <c r="I153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6091,11 +5591,17 @@
         <v>-126106976.5245931</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6124,11 +5630,17 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6157,11 +5669,17 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6190,11 +5708,17 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6225,9 +5749,15 @@
       <c r="H158" t="n">
         <v>1</v>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6256,11 +5786,15 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6291,9 +5825,15 @@
       <c r="H160" t="n">
         <v>1</v>
       </c>
-      <c r="I160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6322,11 +5862,15 @@
         <v>-123693589.7641931</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +5899,15 @@
         <v>-124321495.0240931</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6388,11 +5936,15 @@
         <v>-123365168.7773931</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +5973,15 @@
         <v>-123365168.7773931</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +6010,15 @@
         <v>-123365168.7773931</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6491,7 +6051,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6524,7 +6088,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6557,7 +6125,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6590,7 +6162,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6619,11 +6195,15 @@
         <v>-124008466.4318931</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6656,7 +6236,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6689,7 +6273,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6722,7 +6310,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6755,7 +6347,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6784,11 +6380,15 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6817,11 +6417,15 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6854,7 +6458,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6887,7 +6495,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6920,7 +6532,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6953,7 +6569,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6986,7 +6606,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7019,7 +6643,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7052,7 +6680,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7081,11 +6713,15 @@
         <v>-133335838.9894931</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7114,11 +6750,15 @@
         <v>-133282808.9894931</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7151,7 +6791,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7180,11 +6824,15 @@
         <v>-133388898.9894931</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7213,11 +6861,15 @@
         <v>-133532970.2694931</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +6898,15 @@
         <v>-133329435.9531931</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +6939,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +6972,15 @@
         <v>-133329435.9531931</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7349,7 +7013,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7382,7 +7050,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7415,7 +7087,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7448,7 +7124,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7481,7 +7161,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7514,7 +7198,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7547,7 +7235,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7580,7 +7272,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7613,7 +7309,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7646,7 +7346,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7679,7 +7383,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7712,7 +7420,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7745,7 +7457,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7778,7 +7494,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7811,7 +7531,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7844,7 +7568,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7877,7 +7605,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7910,7 +7642,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7943,7 +7679,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7976,7 +7716,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8009,7 +7753,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8042,7 +7790,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8075,7 +7827,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8108,7 +7864,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8141,7 +7901,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8174,7 +7938,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8207,7 +7975,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8240,7 +8012,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8273,7 +8049,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8306,7 +8086,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8339,7 +8123,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8372,7 +8160,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8405,7 +8197,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8234,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8471,7 +8271,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8504,7 +8308,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8537,7 +8345,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8570,7 +8382,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8603,7 +8419,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8636,7 +8456,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8669,7 +8493,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8702,7 +8530,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8735,7 +8567,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8768,7 +8604,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8801,7 +8641,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8834,7 +8678,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8867,7 +8715,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8900,7 +8752,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8933,7 +8789,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8966,7 +8826,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8999,7 +8863,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9032,7 +8900,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9065,7 +8937,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9098,7 +8974,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9131,7 +9011,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9164,7 +9048,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9197,7 +9085,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9230,7 +9122,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9263,7 +9159,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9296,7 +9196,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9329,7 +9233,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9362,7 +9270,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9395,7 +9307,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9428,7 +9344,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9461,7 +9381,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9494,7 +9418,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9527,7 +9455,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9560,7 +9492,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +9529,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9626,7 +9566,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9659,7 +9603,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9692,7 +9640,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9725,7 +9677,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9758,7 +9714,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9791,7 +9751,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9788,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9857,7 +9825,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9862,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9923,7 +9899,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9956,7 +9936,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9989,7 +9973,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10022,7 +10010,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10055,7 +10047,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10088,7 +10084,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10121,7 +10121,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10154,7 +10158,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10187,7 +10195,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10220,7 +10232,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10253,7 +10269,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10286,7 +10306,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10319,7 +10343,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10352,7 +10380,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10385,7 +10417,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10418,7 +10454,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10451,7 +10491,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10484,7 +10528,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10517,7 +10565,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10550,7 +10602,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10583,7 +10639,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10616,7 +10676,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10649,7 +10713,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10682,7 +10750,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10715,7 +10787,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +10824,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10781,7 +10861,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10814,7 +10898,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10843,11 +10931,17 @@
         <v>-163051544.2289931</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10876,11 +10970,17 @@
         <v>-162461734.0999931</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +11009,17 @@
         <v>-161546919.3421931</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10942,11 +11048,17 @@
         <v>-163003519.3901931</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10975,11 +11087,17 @@
         <v>-163003519.3901931</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11008,11 +11126,17 @@
         <v>-163003399.7711931</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11169,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11078,7 +11206,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11111,7 +11243,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11140,11 +11276,17 @@
         <v>-164981669.5067931</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11173,11 +11315,17 @@
         <v>-162692092.1482931</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11210,7 +11358,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11243,7 +11395,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11276,7 +11432,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11309,7 +11469,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11342,7 +11506,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11375,7 +11543,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11408,7 +11580,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11441,7 +11617,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11474,7 +11654,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11507,7 +11691,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11540,7 +11728,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11573,7 +11765,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11606,7 +11802,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11639,7 +11839,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11672,7 +11876,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11705,7 +11913,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11738,7 +11950,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11771,7 +11987,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11804,7 +12024,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11837,7 +12061,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11870,7 +12098,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11903,7 +12135,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11936,7 +12172,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11969,7 +12209,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12002,7 +12246,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12035,7 +12283,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12068,7 +12320,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12101,7 +12357,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +12390,17 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12163,11 +12429,17 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12196,11 +12468,17 @@
         <v>-167885816.2446931</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12229,11 +12507,17 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12262,11 +12546,17 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12299,7 +12589,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12328,11 +12622,17 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12365,7 +12665,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12394,11 +12698,17 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12427,11 +12737,17 @@
         <v>-168982587.3616931</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12460,11 +12776,17 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12493,11 +12815,17 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12526,11 +12854,17 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12559,11 +12893,17 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12592,11 +12932,17 @@
         <v>-168010065.2455931</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12625,11 +12971,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12658,11 +13010,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12695,7 +13053,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12724,11 +13086,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12761,7 +13129,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12790,11 +13162,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12823,11 +13201,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12860,7 +13244,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12893,7 +13281,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12922,11 +13314,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12959,7 +13357,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12988,11 +13390,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13025,7 +13433,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13054,11 +13466,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13091,7 +13509,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13120,11 +13542,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13153,11 +13581,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13186,11 +13620,17 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13223,7 +13663,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13252,11 +13696,17 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13285,11 +13735,17 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13318,15 +13774,17 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>1.01</v>
       </c>
-      <c r="J373" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13355,17 +13813,15 @@
         <v>-168205202.1393931</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>1.01</v>
       </c>
-      <c r="J374" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L374" t="n">
@@ -13396,17 +13852,15 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>1.02</v>
       </c>
-      <c r="J375" t="n">
-        <v>1.01</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -13437,11 +13891,17 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1.01</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13470,15 +13930,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>1.01</v>
       </c>
-      <c r="J377" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13507,15 +13969,15 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -13546,15 +14008,15 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -13585,11 +14047,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +14086,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14125,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14164,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14203,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14242,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13783,15 +14281,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>1.02</v>
       </c>
-      <c r="J386" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13820,15 +14320,15 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13859,17 +14359,15 @@
         <v>-166637293.7632931</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>1.02</v>
       </c>
-      <c r="J388" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L388" t="n">
@@ -13900,12 +14398,12 @@
         <v>-166656660.6762931</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13939,12 +14437,12 @@
         <v>-164883559.5562543</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13981,9 +14479,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14020,9 +14516,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14059,9 +14553,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14098,9 +14590,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14137,9 +14627,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,9 +14664,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,9 +14701,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,9 +14738,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,9 +14775,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14329,19 +14809,17 @@
         <v>-165465743.4480354</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1.02</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
-        <v>1.044019607843137</v>
+        <v>1</v>
       </c>
       <c r="M400" t="inlineStr"/>
     </row>
@@ -14372,7 +14850,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14401,11 +14883,15 @@
         <v>-164792736.9666354</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14438,7 +14924,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14471,7 +14961,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14500,11 +14994,15 @@
         <v>-164817283.3413354</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14533,11 +15031,15 @@
         <v>-165212446.0685354</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14570,7 +15072,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14603,7 +15109,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14636,7 +15146,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14669,7 +15183,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14702,7 +15220,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14735,7 +15257,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14768,7 +15294,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14801,7 +15331,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14834,7 +15368,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14867,7 +15405,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14896,11 +15438,17 @@
         <v>-167856006.814243</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14929,11 +15477,17 @@
         <v>-168852329.461643</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14962,11 +15516,17 @@
         <v>-168851885.857843</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14995,11 +15555,17 @@
         <v>-168851885.857843</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15028,11 +15594,17 @@
         <v>-168848885.857843</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15061,11 +15633,17 @@
         <v>-168063093.6932526</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15094,11 +15672,17 @@
         <v>-167747114.5853817</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15711,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1.06</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15160,11 +15750,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15193,11 +15789,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15226,11 +15828,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15259,11 +15867,17 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1.05</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15292,11 +15906,17 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15325,11 +15945,17 @@
         <v>-169269500.0659591</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15362,7 +15988,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15391,11 +16021,17 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15424,11 +16060,17 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15457,11 +16099,17 @@
         <v>-171720175.7750591</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>1.04</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15490,11 +16138,17 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15523,11 +16177,17 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15556,11 +16216,17 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15589,11 +16255,17 @@
         <v>-165571679.2667591</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15622,11 +16294,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +16333,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15688,11 +16372,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15721,11 +16411,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15754,11 +16450,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15787,11 +16489,17 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15820,11 +16528,17 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15857,7 +16571,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15890,7 +16608,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15923,7 +16645,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15956,7 +16682,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15989,7 +16719,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16022,7 +16756,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16055,7 +16793,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16088,7 +16830,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16121,7 +16867,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16154,7 +16904,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16187,7 +16941,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16220,7 +16978,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16253,7 +17015,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16286,7 +17052,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16319,7 +17089,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16352,7 +17126,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +17163,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +17200,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16451,7 +17237,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16484,7 +17274,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16517,7 +17311,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16550,7 +17348,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16583,7 +17385,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16616,7 +17422,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16649,7 +17459,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16682,7 +17496,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16715,7 +17533,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16748,7 +17570,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16781,7 +17607,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16814,7 +17644,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16847,7 +17681,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16880,7 +17718,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16913,7 +17755,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16946,7 +17792,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16979,7 +17829,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17012,7 +17866,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17045,7 +17903,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17078,7 +17940,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17111,7 +17977,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17144,7 +18014,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17177,7 +18051,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17210,7 +18088,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17243,7 +18125,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17276,7 +18162,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17309,7 +18199,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17338,11 +18232,17 @@
         <v>-179397095.4243829</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17371,11 +18271,17 @@
         <v>-179397095.4243829</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17404,11 +18310,17 @@
         <v>-179394095.4243829</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17437,11 +18349,17 @@
         <v>-179394205.8548829</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17470,11 +18388,17 @@
         <v>-179394084.7609829</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17507,7 +18431,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +18468,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +18505,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17606,7 +18542,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17639,7 +18579,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17672,7 +18616,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17701,11 +18649,17 @@
         <v>-179703170.7543829</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17734,11 +18688,17 @@
         <v>-179703041.6793829</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17771,7 +18731,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17804,7 +18768,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17837,7 +18805,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18842,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17903,7 +18879,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17932,11 +18912,17 @@
         <v>-179703015.8580829</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17965,17 +18951,23 @@
         <v>-179832662.0648829</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>1.03</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-11 BackTest TMTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,7 +1606,7 @@
         <v>-2371437.211800002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2371458.893600002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2371458.893600002</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2371356.159800002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2371476.802800002</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2104207.797200002</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>15556840.5722</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-149409319.4278</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -3355,14 +3355,10 @@
         <v>-149266825.5742</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3392,19 +3388,11 @@
         <v>-149266825.5742</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3433,19 +3421,11 @@
         <v>-149266945.8509</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4233,7 +4213,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4266,7 +4246,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4299,7 +4279,7 @@
         <v>-120000110.9669349</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4312,7 @@
         <v>-119820493.9633349</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4893,17 +4873,11 @@
         <v>-122094390.1721931</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4932,17 +4906,11 @@
         <v>-123586859.1567931</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4971,17 +4939,11 @@
         <v>-126087569.2045931</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5010,17 +4972,11 @@
         <v>-126087569.2045931</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5049,17 +5005,11 @@
         <v>-123937564.9548931</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5088,17 +5038,11 @@
         <v>-120953227.9889931</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5127,17 +5071,11 @@
         <v>-120953227.9889931</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5166,17 +5104,11 @@
         <v>-120974063.4250931</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5205,17 +5137,11 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5244,17 +5170,11 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5283,17 +5203,11 @@
         <v>-125911182.6392931</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5322,17 +5236,11 @@
         <v>-125110129.0594931</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5361,17 +5269,11 @@
         <v>-126445175.4654931</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5400,17 +5302,11 @@
         <v>-126086297.4245931</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5439,17 +5335,11 @@
         <v>-126086297.4245931</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5482,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5552,17 +5434,11 @@
         <v>-126106986.5245931</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5591,17 +5467,11 @@
         <v>-126106976.5245931</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5630,17 +5500,11 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5669,17 +5533,11 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5708,17 +5566,11 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5747,17 +5599,11 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5823,17 +5665,11 @@
         <v>-126997122.7149931</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5940,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5977,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6014,11 +5834,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6051,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6088,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6125,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6162,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6199,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6236,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6273,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6310,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6384,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6421,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6458,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6569,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6606,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6680,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6717,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6828,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6865,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6902,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6939,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6976,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7013,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7050,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7087,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7198,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7235,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7272,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7309,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7383,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7457,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7494,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7531,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7568,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7605,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7642,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7679,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7753,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7790,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7864,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7901,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7938,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8012,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8049,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8123,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8160,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8234,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8271,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8345,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8419,11 +7979,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8456,11 +8012,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8493,11 +8045,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8530,11 +8078,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8567,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8604,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8641,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8678,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8715,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8789,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8826,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8863,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8900,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8937,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8974,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9011,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9048,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9122,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9159,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9270,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9307,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9344,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9381,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9418,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9455,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9492,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9566,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9603,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9640,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9677,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9714,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9751,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9788,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9825,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9899,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9936,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9973,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10010,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10047,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10084,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10121,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10158,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10195,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10269,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10306,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10343,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10380,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10454,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10491,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10528,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10565,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10602,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10676,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10713,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10750,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10787,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10824,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10861,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10898,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10931,17 +10219,11 @@
         <v>-163051544.2289931</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10970,17 +10252,11 @@
         <v>-162461734.0999931</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11009,17 +10285,11 @@
         <v>-161546919.3421931</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11048,17 +10318,11 @@
         <v>-163003519.3901931</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11087,17 +10351,11 @@
         <v>-163003519.3901931</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11126,17 +10384,11 @@
         <v>-163003399.7711931</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11169,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11206,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11243,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11276,17 +10516,11 @@
         <v>-164981669.5067931</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11315,17 +10549,11 @@
         <v>-162692092.1482931</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11358,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11395,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11432,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11469,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11543,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11580,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11617,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11654,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11691,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11765,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11802,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11839,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11876,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11913,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11950,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11987,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12024,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12061,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12098,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12135,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12172,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12209,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12246,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12283,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12320,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12357,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12390,17 +11506,11 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12429,17 +11539,11 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12468,17 +11572,11 @@
         <v>-167885816.2446931</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12507,17 +11605,11 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12546,17 +11638,11 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12589,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12622,17 +11704,11 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12665,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12698,17 +11770,11 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12737,17 +11803,11 @@
         <v>-168982587.3616931</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12776,17 +11836,11 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12815,17 +11869,11 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12854,17 +11902,11 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12893,17 +11935,11 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12932,17 +11968,11 @@
         <v>-168010065.2455931</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12971,17 +12001,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13010,17 +12034,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13053,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13086,17 +12100,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13162,17 +12166,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13201,17 +12199,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13244,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13281,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13314,17 +12298,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13357,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13390,17 +12364,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13433,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13466,17 +12430,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13509,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13542,17 +12496,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13581,17 +12529,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13620,17 +12562,11 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13663,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13696,17 +12628,11 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13735,17 +12661,11 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13774,17 +12694,11 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13813,17 +12727,11 @@
         <v>-168205202.1393931</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13852,17 +12760,11 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13891,17 +12793,11 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13935,12 +12831,10 @@
       <c r="I377" t="n">
         <v>1.01</v>
       </c>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13969,15 +12863,15 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J378" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -14008,15 +12902,15 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J379" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -14047,17 +12941,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14086,17 +12974,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14125,17 +13007,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14164,17 +13040,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14203,17 +13073,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14242,17 +13106,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14281,17 +13139,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14320,17 +13172,11 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14359,17 +13205,11 @@
         <v>-166637293.7632931</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14398,17 +13238,11 @@
         <v>-166656660.6762931</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14437,17 +13271,11 @@
         <v>-164883559.5562543</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14480,11 +13308,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14517,11 +13341,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14554,11 +13374,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14591,11 +13407,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14628,11 +13440,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14665,11 +13473,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14702,11 +13506,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14739,11 +13539,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14776,11 +13572,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14813,11 +13605,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14850,11 +13638,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14887,11 +13671,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14924,11 +13704,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14961,11 +13737,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14998,11 +13770,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15035,11 +13803,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15072,11 +13836,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15109,11 +13869,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15146,11 +13902,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15183,11 +13935,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15220,11 +13968,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15257,11 +14001,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15294,11 +14034,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15331,11 +14067,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15368,11 +14100,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15405,11 +14133,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15438,17 +14162,11 @@
         <v>-167856006.814243</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15477,17 +14195,11 @@
         <v>-168852329.461643</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15516,17 +14228,11 @@
         <v>-168851885.857843</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15555,17 +14261,11 @@
         <v>-168851885.857843</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15594,17 +14294,11 @@
         <v>-168848885.857843</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15633,17 +14327,11 @@
         <v>-168063093.6932526</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15672,17 +14360,11 @@
         <v>-167747114.5853817</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15711,17 +14393,11 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>1.06</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15750,17 +14426,11 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>1.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15789,17 +14459,11 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>1.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15828,17 +14492,11 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>1.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15867,17 +14525,11 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>1.05</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15906,17 +14558,11 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>1.04</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15945,17 +14591,11 @@
         <v>-169269500.0659591</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>1.04</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15984,15 +14624,11 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16021,17 +14657,11 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16060,17 +14690,11 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16099,17 +14723,11 @@
         <v>-171720175.7750591</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16138,17 +14756,11 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16177,17 +14789,11 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16216,17 +14822,11 @@
         <v>-165381185.6269591</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16255,17 +14855,11 @@
         <v>-165571679.2667591</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16294,17 +14888,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16333,17 +14921,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16372,17 +14954,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16411,17 +14987,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16450,17 +15020,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16489,17 +15053,11 @@
         <v>-165233240.8417591</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16533,12 +15091,10 @@
       <c r="I445" t="n">
         <v>1.03</v>
       </c>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16567,13 +15123,17 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J446" t="n">
+        <v>1.03</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L446" t="n">
@@ -16604,13 +15164,17 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1.03</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L447" t="n">
@@ -16641,15 +15205,15 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16678,13 +15242,17 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J449" t="n">
+        <v>1.04</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -16715,13 +15283,17 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J450" t="n">
+        <v>1.04</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -16752,15 +15324,15 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J451" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16792,10 +15364,12 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>1.04</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -16826,13 +15400,17 @@
         <v>-164301797.2761591</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J453" t="n">
+        <v>1.04</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L453" t="n">
@@ -16867,11 +15445,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16904,11 +15478,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16941,11 +15511,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16978,11 +15544,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17015,11 +15577,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17052,11 +15610,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +15643,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17126,11 +15676,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17163,11 +15709,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17200,11 +15742,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17237,11 +15775,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17274,11 +15808,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17311,11 +15841,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17348,11 +15874,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17385,11 +15907,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17422,11 +15940,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17459,11 +15973,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17496,11 +16006,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17533,11 +16039,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17570,11 +16072,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17607,11 +16105,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +16138,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17681,11 +16171,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17718,11 +16204,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17755,11 +16237,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17792,11 +16270,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17829,11 +16303,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17866,11 +16336,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17903,11 +16369,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17940,11 +16402,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17977,11 +16435,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18014,11 +16468,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18051,11 +16501,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18088,11 +16534,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18125,11 +16567,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18162,11 +16600,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +16633,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18232,17 +16662,11 @@
         <v>-179397095.4243829</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18271,17 +16695,11 @@
         <v>-179397095.4243829</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18310,17 +16728,11 @@
         <v>-179394095.4243829</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18349,17 +16761,11 @@
         <v>-179394205.8548829</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18388,17 +16794,11 @@
         <v>-179394084.7609829</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18431,11 +16831,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18468,11 +16864,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18505,11 +16897,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18542,11 +16930,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18579,11 +16963,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18616,11 +16996,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18649,17 +17025,11 @@
         <v>-179703170.7543829</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18693,12 +17063,10 @@
       <c r="I503" t="n">
         <v>1.02</v>
       </c>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18730,10 +17098,12 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>1.02</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -18767,10 +17137,12 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>1.02</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -18805,11 +17177,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18842,11 +17210,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18879,11 +17243,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18912,17 +17272,11 @@
         <v>-179703015.8580829</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18951,23 +17305,17 @@
         <v>-179832662.0648829</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-11 BackTest TMTG.xlsx
+++ b/BackTest/2019-10-11 BackTest TMTG.xlsx
@@ -3982,10 +3982,14 @@
         <v>-149934208.0257001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4018,8 +4022,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4061,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4213,7 +4229,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4262,7 @@
         <v>-119794973.2142349</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4312,7 +4328,7 @@
         <v>-119820493.9633349</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4361,7 @@
         <v>-118748825.042256</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4394,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4427,7 @@
         <v>-121547938.112956</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4460,7 @@
         <v>-122536937.078056</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4559,7 @@
         <v>-123738131.153856</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5995,7 +6011,7 @@
         <v>-124008466.4318931</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6094,7 +6110,7 @@
         <v>-132402108.0604931</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6143,7 @@
         <v>-132561156.7961931</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6176,7 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6209,7 @@
         <v>-132561146.7961931</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6358,7 +6374,7 @@
         <v>-133335600.7718931</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6407,7 @@
         <v>-133335727.7763931</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6440,7 @@
         <v>-133335717.7763931</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6473,7 @@
         <v>-133335838.9894931</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6539,7 @@
         <v>-133282808.9894931</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6572,7 @@
         <v>-133388898.9894931</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6605,7 @@
         <v>-133532970.2694931</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6721,7 +6737,7 @@
         <v>-133329435.9531931</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6787,7 +6803,7 @@
         <v>-142090677.5912931</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -11473,10 +11489,14 @@
         <v>-167692308.4691931</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11506,11 +11526,19 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J337" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11567,19 @@
         <v>-167692181.5446931</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11605,10 +11641,14 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1.01</v>
+      </c>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
@@ -11638,11 +11678,19 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11719,19 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J342" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11760,19 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11801,19 @@
         <v>-167885674.3150931</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +11845,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11881,19 @@
         <v>-168982587.3616931</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J346" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11922,19 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J347" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +11963,19 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J348" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12004,19 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J349" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12045,19 @@
         <v>-168695925.3076931</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12086,19 @@
         <v>-168010065.2455931</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12130,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12169,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12208,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12244,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J355" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12288,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12327,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12363,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J358" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12404,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12445,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J360" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12486,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J361" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12527,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J362" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12568,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J363" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12609,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J364" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12650,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J365" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12691,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J366" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12732,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J367" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12773,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J368" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12814,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J369" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12855,19 @@
         <v>-168205197.5365931</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J370" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +12899,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12935,19 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J372" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12976,19 @@
         <v>-168205332.3960931</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J373" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13017,19 @@
         <v>-168205202.1393931</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J374" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13058,19 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J375" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13099,19 @@
         <v>-168215075.5006931</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J376" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12834,7 +13148,11 @@
       <c r="J377" t="n">
         <v>1.01</v>
       </c>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,15 +13181,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J378" t="n">
         <v>1.01</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L378" t="n">
@@ -12902,15 +13222,17 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1.02</v>
+      </c>
       <c r="J379" t="n">
         <v>1.01</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L379" t="n">
@@ -12941,11 +13263,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J380" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12974,11 +13304,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J381" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13007,11 +13345,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J382" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13040,11 +13386,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J383" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13073,11 +13427,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J384" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13106,11 +13468,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J385" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13139,11 +13509,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J386" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13172,11 +13550,19 @@
         <v>-167665608.3343931</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J387" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13205,11 +13591,19 @@
         <v>-166637293.7632931</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J388" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13238,11 +13632,19 @@
         <v>-166656660.6762931</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J389" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13271,11 +13673,19 @@
         <v>-164883559.5562543</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J390" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13307,8 +13717,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13340,8 +13756,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13373,8 +13795,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13406,8 +13834,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13439,8 +13873,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13472,8 +13912,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13505,8 +13951,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13538,8 +13990,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13571,8 +14029,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13604,8 +14068,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13637,8 +14107,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13670,8 +14146,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13703,8 +14185,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13736,8 +14224,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13769,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13802,8 +14302,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +14341,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13868,8 +14380,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13901,8 +14419,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13934,8 +14458,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13967,8 +14497,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14000,8 +14536,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14033,8 +14575,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14066,8 +14614,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14099,8 +14653,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14132,8 +14692,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14165,8 +14731,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14198,8 +14770,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14231,8 +14809,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14264,8 +14848,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14297,8 +14887,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14330,8 +14926,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14363,8 +14965,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14393,11 +15001,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14426,11 +15040,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14459,11 +15079,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14492,11 +15118,17 @@
         <v>-168040660.2457591</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14525,11 +15157,17 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14558,11 +15196,17 @@
         <v>-169269612.2091591</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14591,11 +15235,17 @@
         <v>-169269500.0659591</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14624,11 +15274,17 @@
         <v>-169375965.7084591</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14660,8 +15316,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14693,8 +15355,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14726,8 +15394,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14759,8 +15433,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14792,8 +15472,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14825,8 +15511,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14858,8 +15550,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14891,8 +15589,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14924,8 +15628,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14957,8 +15667,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14990,8 +15706,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15023,8 +15745,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15056,8 +15784,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15086,15 +15820,17 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K445" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15123,17 +15859,15 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L446" t="n">
@@ -15164,17 +15898,15 @@
         <v>-165233102.8550591</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L447" t="n">
@@ -15205,15 +15937,17 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K448" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15242,17 +15976,15 @@
         <v>-165233795.1118591</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L449" t="n">
@@ -15283,17 +16015,15 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>1.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L450" t="n">
@@ -15324,15 +16054,17 @@
         <v>-164301810.2013591</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>1.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K451" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15365,11 +16097,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L452" t="n">
@@ -15400,17 +16132,15 @@
         <v>-164301797.2761591</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L453" t="n">
@@ -15444,8 +16174,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15477,8 +16213,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15510,8 +16252,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15543,8 +16291,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15576,8 +16330,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15609,8 +16369,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15642,8 +16408,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15675,8 +16447,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +16486,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15741,8 +16525,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15774,8 +16564,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15807,8 +16603,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15840,8 +16642,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15873,8 +16681,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15906,8 +16720,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15939,8 +16759,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15972,8 +16798,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +16837,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +16876,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16071,8 +16915,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +16954,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16137,8 +16993,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +17032,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16203,8 +17071,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +17110,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +17149,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16302,8 +17188,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16335,8 +17227,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16368,8 +17266,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16401,8 +17305,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16434,8 +17344,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16467,8 +17383,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16500,8 +17422,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16533,8 +17461,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16566,8 +17500,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16599,8 +17539,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16632,8 +17578,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16665,8 +17617,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16698,8 +17656,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16731,8 +17695,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16764,8 +17734,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16797,8 +17773,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16830,8 +17812,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16863,8 +17851,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16896,8 +17890,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16929,8 +17929,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16962,8 +17968,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16995,8 +18007,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17028,8 +18046,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17058,15 +18082,17 @@
         <v>-179703041.6793829</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>1.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K503" t="inlineStr"/>
+        <v>1.01</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17099,11 +18125,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L504" t="n">
@@ -17138,11 +18164,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L505" t="n">
@@ -17176,8 +18202,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17209,8 +18241,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17242,8 +18280,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17275,8 +18319,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17308,8 +18358,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
